--- a/ASSETS/excel/ticker-demo/basic-news-ticker.xlsx
+++ b/ASSETS/excel/ticker-demo/basic-news-ticker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GC\ASSETS\excel\ticker-demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\SPX-GC\ASSETS\excel\ticker-demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26920A2-F3C6-4C38-929C-3A77F6C73DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8025155D-0AEB-4B11-835C-C03AA94D4482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6576" yWindow="876" windowWidth="34560" windowHeight="13644" xr2:uid="{D3602A80-A8D3-45A9-BF39-551D68E1E11E}"/>
+    <workbookView xWindow="432" yWindow="444" windowWidth="22608" windowHeight="11796" xr2:uid="{D3602A80-A8D3-45A9-BF39-551D68E1E11E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TICKER ITEM TEXT</t>
   </si>
@@ -48,22 +39,25 @@
     <t>Only lines which are marked with "X" will go on-air</t>
   </si>
   <si>
-    <t>This is the first item from the local Excel file</t>
-  </si>
-  <si>
-    <t>This is skipped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class aptent taciti sociosqu ad litora torquent per conubia nostra, per inceptos himenaeos. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Morbi lacinia molestie dui.</t>
+    <t>Ipiales tendrá 2 equipos en microfutbol profesional! Uno en la A y otro en la B</t>
+  </si>
+  <si>
+    <t>Solo micro nuevo equipo de segunda división en el microfutbol profesional</t>
+  </si>
+  <si>
+    <t>Mañana se jugará la primer jornada del suramericano a las 4 pm hora Colombia</t>
+  </si>
+  <si>
+    <t>Ipiales FS Gambeta NC nuevo equipo de primera división en el microfutbol profesional</t>
+  </si>
+  <si>
+    <t>Nomina confirmada Peru team</t>
+  </si>
+  <si>
+    <t>Mañana se conocerá el detalle de los encuentros</t>
   </si>
 </sst>
 </file>
@@ -133,7 +127,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -163,9 +157,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 -teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +197,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -309,7 +303,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,10 +459,10 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="131.33203125" customWidth="1"/>
@@ -488,24 +482,18 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -513,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -521,20 +509,17 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
